--- a/02. All Zones - On and Off - F.xlsx
+++ b/02. All Zones - On and Off - F.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tarad\For Jupyterlab 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B953A56-4C33-4C1D-9DDA-6ABE0C783187}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{536008A9-CA0A-44D8-A855-C3E5107F0FEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-75" yWindow="0" windowWidth="9750" windowHeight="12075" xr2:uid="{8956C600-B1E2-4B00-9D7C-06D6BF8C7C5E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="23">
   <si>
     <t>Monitors</t>
   </si>
@@ -501,10 +501,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B5A22C8-D69E-4FE5-94C4-4C34F4D1002F}">
-  <dimension ref="A1:G151"/>
+  <dimension ref="A1:G153"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -641,13 +641,13 @@
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F6" s="1">
-        <v>298.42950000000002</v>
+        <v>275.60000000000002</v>
       </c>
       <c r="G6" s="1">
-        <v>451.52319999999997</v>
+        <v>488.84840000000003</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.75">
@@ -664,13 +664,13 @@
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F7" s="1">
-        <v>282.4033</v>
+        <v>298.42950000000002</v>
       </c>
       <c r="G7" s="1">
-        <v>499.69569999999999</v>
+        <v>451.52319999999997</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.75">
@@ -687,13 +687,13 @@
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F8" s="1">
-        <v>327.25299999999999</v>
+        <v>282.4033</v>
       </c>
       <c r="G8" s="1">
-        <v>520.78139999999996</v>
+        <v>499.69569999999999</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.75">
@@ -710,13 +710,13 @@
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F9" s="1">
-        <v>297.10930000000002</v>
+        <v>327.25299999999999</v>
       </c>
       <c r="G9" s="1">
-        <v>466.74130000000002</v>
+        <v>520.78139999999996</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.75">
@@ -733,13 +733,13 @@
         <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F10" s="1">
-        <v>295.41969999999998</v>
+        <v>297.10930000000002</v>
       </c>
       <c r="G10" s="1">
-        <v>539.68299999999999</v>
+        <v>466.74130000000002</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.75">
@@ -756,13 +756,13 @@
         <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F11" s="1">
-        <v>338.45400000000001</v>
+        <v>295.41969999999998</v>
       </c>
       <c r="G11" s="1">
-        <v>539.66890000000001</v>
+        <v>539.68299999999999</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.75">
@@ -779,13 +779,13 @@
         <v>0</v>
       </c>
       <c r="E12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F12" s="1">
-        <v>352.76350000000002</v>
+        <v>338.45400000000001</v>
       </c>
       <c r="G12" s="1">
-        <v>555.21929999999998</v>
+        <v>539.66890000000001</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.75">
@@ -802,13 +802,13 @@
         <v>0</v>
       </c>
       <c r="E13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F13" s="1">
-        <v>360.26100000000002</v>
+        <v>352.76350000000002</v>
       </c>
       <c r="G13" s="1">
-        <v>574.39279999999997</v>
+        <v>555.21929999999998</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.75">
@@ -822,16 +822,16 @@
         <v>5</v>
       </c>
       <c r="D14">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="E14" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F14" s="1">
-        <v>310.68880000000001</v>
+        <v>360.26100000000002</v>
       </c>
       <c r="G14" s="1">
-        <v>568.87819999999999</v>
+        <v>574.39279999999997</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.75">
@@ -848,13 +848,13 @@
         <v>25</v>
       </c>
       <c r="E15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F15" s="1">
-        <v>316.36</v>
+        <v>310.68880000000001</v>
       </c>
       <c r="G15" s="1">
-        <v>507.26080000000002</v>
+        <v>568.87819999999999</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.75">
@@ -871,13 +871,13 @@
         <v>25</v>
       </c>
       <c r="E16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F16" s="1">
-        <v>368.78640000000001</v>
+        <v>316.36</v>
       </c>
       <c r="G16" s="1">
-        <v>577.01700000000005</v>
+        <v>507.26080000000002</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.75">
@@ -894,13 +894,13 @@
         <v>25</v>
       </c>
       <c r="E17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F17" s="1">
-        <v>307.08170000000001</v>
+        <v>368.78640000000001</v>
       </c>
       <c r="G17" s="1">
-        <v>568.38030000000003</v>
+        <v>577.01700000000005</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.75">
@@ -917,13 +917,13 @@
         <v>25</v>
       </c>
       <c r="E18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F18" s="1">
-        <v>321.42059999999998</v>
+        <v>307.08170000000001</v>
       </c>
       <c r="G18" s="1">
-        <v>630.03560000000004</v>
+        <v>568.38030000000003</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.75">
@@ -940,13 +940,13 @@
         <v>25</v>
       </c>
       <c r="E19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F19" s="1">
-        <v>375.63170000000002</v>
+        <v>321.42059999999998</v>
       </c>
       <c r="G19" s="1">
-        <v>588.67769999999996</v>
+        <v>630.03560000000004</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.75">
@@ -963,13 +963,13 @@
         <v>25</v>
       </c>
       <c r="E20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F20" s="1">
-        <v>374.2373</v>
+        <v>375.63170000000002</v>
       </c>
       <c r="G20" s="1">
-        <v>652.51289999999995</v>
+        <v>588.67769999999996</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.75">
@@ -986,13 +986,13 @@
         <v>25</v>
       </c>
       <c r="E21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F21" s="1">
-        <v>399.65359999999998</v>
+        <v>374.2373</v>
       </c>
       <c r="G21" s="1">
-        <v>624.7509</v>
+        <v>652.51289999999995</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.75">
@@ -1003,19 +1003,19 @@
         <v>4</v>
       </c>
       <c r="C22" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D22">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="E22" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F22" s="1">
-        <v>487.29079999999999</v>
+        <v>399.65359999999998</v>
       </c>
       <c r="G22" s="1">
-        <v>697.31849999999997</v>
+        <v>624.7509</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.75">
@@ -1029,16 +1029,16 @@
         <v>6</v>
       </c>
       <c r="D23">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="E23" t="s">
         <v>13</v>
       </c>
       <c r="F23" s="1">
-        <v>436.66390000000001</v>
+        <v>487.29079999999999</v>
       </c>
       <c r="G23" s="1">
-        <v>663.84360000000004</v>
+        <v>697.31849999999997</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.75">
@@ -1052,16 +1052,16 @@
         <v>6</v>
       </c>
       <c r="D24">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="E24" t="s">
         <v>13</v>
       </c>
       <c r="F24" s="1">
-        <v>421.56290000000001</v>
+        <v>436.66390000000001</v>
       </c>
       <c r="G24" s="1">
-        <v>570.26340000000005</v>
+        <v>663.84360000000004</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.75">
@@ -1075,16 +1075,16 @@
         <v>6</v>
       </c>
       <c r="D25">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E25" t="s">
         <v>13</v>
       </c>
       <c r="F25" s="1">
-        <v>370.56200000000001</v>
+        <v>421.56290000000001</v>
       </c>
       <c r="G25" s="1">
-        <v>531.51049999999998</v>
+        <v>570.26340000000005</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.75">
@@ -1098,16 +1098,16 @@
         <v>6</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F26" s="1">
-        <v>362.9828</v>
+        <v>370.56200000000001</v>
       </c>
       <c r="G26" s="1">
-        <v>457.59559999999999</v>
+        <v>531.51049999999998</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.75">
@@ -1124,13 +1124,13 @@
         <v>0</v>
       </c>
       <c r="E27" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F27" s="1">
-        <v>348.46420000000001</v>
+        <v>349.77339999999998</v>
       </c>
       <c r="G27" s="1">
-        <v>510.2004</v>
+        <v>470.2749</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.75">
@@ -1147,13 +1147,13 @@
         <v>0</v>
       </c>
       <c r="E28" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F28" s="1">
-        <v>416.07639999999998</v>
+        <v>362.9828</v>
       </c>
       <c r="G28" s="1">
-        <v>518.06320000000005</v>
+        <v>457.59559999999999</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.75">
@@ -1170,13 +1170,13 @@
         <v>0</v>
       </c>
       <c r="E29" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F29" s="1">
-        <v>389.01819999999998</v>
+        <v>348.46420000000001</v>
       </c>
       <c r="G29" s="1">
-        <v>486.94</v>
+        <v>510.2004</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.75">
@@ -1193,13 +1193,13 @@
         <v>0</v>
       </c>
       <c r="E30" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F30" s="1">
-        <v>365.48250000000002</v>
+        <v>416.07639999999998</v>
       </c>
       <c r="G30" s="1">
-        <v>555.77470000000005</v>
+        <v>518.06320000000005</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.75">
@@ -1216,13 +1216,13 @@
         <v>0</v>
       </c>
       <c r="E31" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F31" s="1">
-        <v>412.53320000000002</v>
+        <v>389.01819999999998</v>
       </c>
       <c r="G31" s="1">
-        <v>533.03309999999999</v>
+        <v>486.94</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.75">
@@ -1239,13 +1239,13 @@
         <v>0</v>
       </c>
       <c r="E32" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F32" s="1">
-        <v>416.69060000000002</v>
+        <v>365.48250000000002</v>
       </c>
       <c r="G32" s="1">
-        <v>571.99270000000001</v>
+        <v>555.77470000000005</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.75">
@@ -1262,13 +1262,13 @@
         <v>0</v>
       </c>
       <c r="E33" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F33" s="1">
-        <v>419.46199999999999</v>
+        <v>412.53320000000002</v>
       </c>
       <c r="G33" s="1">
-        <v>586.55100000000004</v>
+        <v>533.03309999999999</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.75">
@@ -1282,16 +1282,16 @@
         <v>6</v>
       </c>
       <c r="D34">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="E34" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F34" s="1">
-        <v>369.61610000000002</v>
+        <v>416.69060000000002</v>
       </c>
       <c r="G34" s="1">
-        <v>553.58130000000006</v>
+        <v>571.99270000000001</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.75">
@@ -1305,16 +1305,16 @@
         <v>6</v>
       </c>
       <c r="D35">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="E35" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F35" s="1">
-        <v>414.39170000000001</v>
+        <v>419.46199999999999</v>
       </c>
       <c r="G35" s="1">
-        <v>492.2405</v>
+        <v>586.55100000000004</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.75">
@@ -1331,13 +1331,13 @@
         <v>25</v>
       </c>
       <c r="E36" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F36" s="1">
-        <v>433.67829999999998</v>
+        <v>369.61610000000002</v>
       </c>
       <c r="G36" s="1">
-        <v>574.90110000000004</v>
+        <v>553.58130000000006</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.75">
@@ -1354,13 +1354,13 @@
         <v>25</v>
       </c>
       <c r="E37" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F37" s="1">
-        <v>385.91579999999999</v>
+        <v>414.39170000000001</v>
       </c>
       <c r="G37" s="1">
-        <v>554.13</v>
+        <v>492.2405</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.75">
@@ -1377,13 +1377,13 @@
         <v>25</v>
       </c>
       <c r="E38" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F38" s="1">
-        <v>397.32839999999999</v>
+        <v>433.67829999999998</v>
       </c>
       <c r="G38" s="1">
-        <v>599.23919999999998</v>
+        <v>574.90110000000004</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.75">
@@ -1400,13 +1400,13 @@
         <v>25</v>
       </c>
       <c r="E39" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F39" s="1">
-        <v>434.41239999999999</v>
+        <v>385.91579999999999</v>
       </c>
       <c r="G39" s="1">
-        <v>584.28380000000004</v>
+        <v>554.13</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.75">
@@ -1423,13 +1423,13 @@
         <v>25</v>
       </c>
       <c r="E40" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F40" s="1">
-        <v>452.7552</v>
+        <v>397.32839999999999</v>
       </c>
       <c r="G40" s="1">
-        <v>613.33050000000003</v>
+        <v>599.23919999999998</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.75">
@@ -1446,13 +1446,13 @@
         <v>25</v>
       </c>
       <c r="E41" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F41" s="1">
-        <v>470.38380000000001</v>
+        <v>434.41239999999999</v>
       </c>
       <c r="G41" s="1">
-        <v>614.70950000000005</v>
+        <v>584.28380000000004</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.75">
@@ -1460,22 +1460,22 @@
         <v>8</v>
       </c>
       <c r="B42" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C42" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D42">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="E42" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F42" s="1">
-        <v>459.88339999999999</v>
+        <v>452.7552</v>
       </c>
       <c r="G42" s="1">
-        <v>764.49189999999999</v>
+        <v>613.33050000000003</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.75">
@@ -1483,22 +1483,22 @@
         <v>8</v>
       </c>
       <c r="B43" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C43" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D43">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="E43" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F43" s="1">
-        <v>453.435</v>
+        <v>470.38380000000001</v>
       </c>
       <c r="G43" s="1">
-        <v>661.64160000000004</v>
+        <v>614.70950000000005</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.75">
@@ -1512,16 +1512,16 @@
         <v>5</v>
       </c>
       <c r="D44">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E44" t="s">
         <v>13</v>
       </c>
       <c r="F44" s="1">
-        <v>432.9083</v>
+        <v>459.88339999999999</v>
       </c>
       <c r="G44" s="1">
-        <v>672.86109999999996</v>
+        <v>764.49189999999999</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.75">
@@ -1535,16 +1535,16 @@
         <v>5</v>
       </c>
       <c r="D45">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="E45" t="s">
         <v>13</v>
       </c>
       <c r="F45" s="1">
-        <v>382.14249999999998</v>
+        <v>453.435</v>
       </c>
       <c r="G45" s="1">
-        <v>525.255</v>
+        <v>661.64160000000004</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.75">
@@ -1558,16 +1558,16 @@
         <v>5</v>
       </c>
       <c r="D46">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E46" t="s">
         <v>13</v>
       </c>
       <c r="F46" s="1">
-        <v>344.58359999999999</v>
+        <v>432.9083</v>
       </c>
       <c r="G46" s="1">
-        <v>479.36419999999998</v>
+        <v>672.86109999999996</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.75">
@@ -1581,16 +1581,16 @@
         <v>5</v>
       </c>
       <c r="D47">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E47" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F47" s="1">
-        <v>385.21249999999998</v>
+        <v>382.14249999999998</v>
       </c>
       <c r="G47" s="1">
-        <v>478.98610000000002</v>
+        <v>525.255</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.75">
@@ -1607,13 +1607,13 @@
         <v>0</v>
       </c>
       <c r="E48" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F48" s="1">
-        <v>355.90609999999998</v>
+        <v>344.58359999999999</v>
       </c>
       <c r="G48" s="1">
-        <v>529.69709999999998</v>
+        <v>479.36419999999998</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.75">
@@ -1630,13 +1630,13 @@
         <v>0</v>
       </c>
       <c r="E49" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F49" s="1">
-        <v>409.5804</v>
+        <v>385.21249999999998</v>
       </c>
       <c r="G49" s="1">
-        <v>523.36580000000004</v>
+        <v>478.98610000000002</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.75">
@@ -1653,13 +1653,13 @@
         <v>0</v>
       </c>
       <c r="E50" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F50" s="1">
-        <v>369.02749999999997</v>
+        <v>355.90609999999998</v>
       </c>
       <c r="G50" s="1">
-        <v>493.30380000000002</v>
+        <v>529.69709999999998</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.75">
@@ -1676,13 +1676,13 @@
         <v>0</v>
       </c>
       <c r="E51" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F51" s="1">
-        <v>362.69139999999999</v>
+        <v>409.5804</v>
       </c>
       <c r="G51" s="1">
-        <v>569.00480000000005</v>
+        <v>523.36580000000004</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.75">
@@ -1699,13 +1699,13 @@
         <v>0</v>
       </c>
       <c r="E52" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F52" s="1">
-        <v>425.84710000000001</v>
+        <v>369.02749999999997</v>
       </c>
       <c r="G52" s="1">
-        <v>522.67240000000004</v>
+        <v>493.30380000000002</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.75">
@@ -1722,13 +1722,13 @@
         <v>0</v>
       </c>
       <c r="E53" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F53" s="1">
-        <v>411.0736</v>
+        <v>362.69139999999999</v>
       </c>
       <c r="G53" s="1">
-        <v>558.0249</v>
+        <v>569.00480000000005</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.75">
@@ -1745,13 +1745,13 @@
         <v>0</v>
       </c>
       <c r="E54" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F54" s="1">
-        <v>447.9425</v>
+        <v>425.84710000000001</v>
       </c>
       <c r="G54" s="1">
-        <v>603.75639999999999</v>
+        <v>522.67240000000004</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.75">
@@ -1768,13 +1768,13 @@
         <v>0</v>
       </c>
       <c r="E55" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F55" s="1">
-        <v>348.846</v>
+        <v>411.0736</v>
       </c>
       <c r="G55" s="1">
-        <v>496.2047</v>
+        <v>558.0249</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.75">
@@ -1791,13 +1791,13 @@
         <v>0</v>
       </c>
       <c r="E56" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F56" s="1">
-        <v>387.90429999999998</v>
+        <v>447.9425</v>
       </c>
       <c r="G56" s="1">
-        <v>487.09429999999998</v>
+        <v>603.75639999999999</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.75">
@@ -1814,13 +1814,13 @@
         <v>0</v>
       </c>
       <c r="E57" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F57" s="1">
-        <v>348.85849999999999</v>
+        <v>348.846</v>
       </c>
       <c r="G57" s="1">
-        <v>528.43380000000002</v>
+        <v>496.2047</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.75">
@@ -1837,13 +1837,13 @@
         <v>0</v>
       </c>
       <c r="E58" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F58" s="1">
-        <v>422.94979999999998</v>
+        <v>387.90429999999998</v>
       </c>
       <c r="G58" s="1">
-        <v>524.66719999999998</v>
+        <v>487.09429999999998</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.75">
@@ -1860,13 +1860,13 @@
         <v>0</v>
       </c>
       <c r="E59" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F59" s="1">
-        <v>387.14749999999998</v>
+        <v>348.85849999999999</v>
       </c>
       <c r="G59" s="1">
-        <v>479.38940000000002</v>
+        <v>528.43380000000002</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.75">
@@ -1883,13 +1883,13 @@
         <v>0</v>
       </c>
       <c r="E60" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F60" s="1">
-        <v>384.63529999999997</v>
+        <v>422.94979999999998</v>
       </c>
       <c r="G60" s="1">
-        <v>577.62379999999996</v>
+        <v>524.66719999999998</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.75">
@@ -1906,13 +1906,13 @@
         <v>0</v>
       </c>
       <c r="E61" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F61" s="1">
-        <v>433.0926</v>
+        <v>387.14749999999998</v>
       </c>
       <c r="G61" s="1">
-        <v>561.07719999999995</v>
+        <v>479.38940000000002</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.75">
@@ -1929,13 +1929,13 @@
         <v>0</v>
       </c>
       <c r="E62" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F62" s="1">
-        <v>417.60660000000001</v>
+        <v>384.63529999999997</v>
       </c>
       <c r="G62" s="1">
-        <v>567.83619999999996</v>
+        <v>577.62379999999996</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.75">
@@ -1952,13 +1952,13 @@
         <v>0</v>
       </c>
       <c r="E63" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F63" s="1">
-        <v>473.14229999999998</v>
+        <v>433.0926</v>
       </c>
       <c r="G63" s="1">
-        <v>608.80840000000001</v>
+        <v>561.07719999999995</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.75">
@@ -1975,13 +1975,13 @@
         <v>0</v>
       </c>
       <c r="E64" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F64" s="1">
-        <v>356.77850000000001</v>
+        <v>417.60660000000001</v>
       </c>
       <c r="G64" s="1">
-        <v>452.07690000000002</v>
+        <v>567.83619999999996</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.75">
@@ -2001,10 +2001,10 @@
         <v>21</v>
       </c>
       <c r="F65" s="1">
-        <v>454.14749999999998</v>
+        <v>473.14229999999998</v>
       </c>
       <c r="G65" s="1">
-        <v>561.48670000000004</v>
+        <v>608.80840000000001</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.75">
@@ -2021,13 +2021,13 @@
         <v>0</v>
       </c>
       <c r="E66" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F66" s="1">
-        <v>428.06009999999998</v>
+        <v>356.77850000000001</v>
       </c>
       <c r="G66" s="1">
-        <v>530.19389999999999</v>
+        <v>452.07690000000002</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.75">
@@ -2044,13 +2044,13 @@
         <v>0</v>
       </c>
       <c r="E67" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F67" s="1">
-        <v>439.8211</v>
+        <v>454.14749999999998</v>
       </c>
       <c r="G67" s="1">
-        <v>521.42759999999998</v>
+        <v>561.48670000000004</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.75">
@@ -2061,19 +2061,19 @@
         <v>11</v>
       </c>
       <c r="C68" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D68">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E68" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F68" s="1">
-        <v>535.42610000000002</v>
+        <v>428.06009999999998</v>
       </c>
       <c r="G68" s="1">
-        <v>733.95119999999997</v>
+        <v>530.19389999999999</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.75">
@@ -2084,19 +2084,19 @@
         <v>11</v>
       </c>
       <c r="C69" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D69">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="E69" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F69" s="1">
-        <v>530.18600000000004</v>
+        <v>439.8211</v>
       </c>
       <c r="G69" s="1">
-        <v>654.61419999999998</v>
+        <v>521.42759999999998</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.75">
@@ -2110,16 +2110,16 @@
         <v>6</v>
       </c>
       <c r="D70">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E70" t="s">
         <v>13</v>
       </c>
       <c r="F70" s="1">
-        <v>526.38810000000001</v>
+        <v>535.42610000000002</v>
       </c>
       <c r="G70" s="1">
-        <v>649.91849999999999</v>
+        <v>733.95119999999997</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.75">
@@ -2133,16 +2133,16 @@
         <v>6</v>
       </c>
       <c r="D71">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="E71" t="s">
         <v>13</v>
       </c>
       <c r="F71" s="1">
-        <v>455.4391</v>
+        <v>530.18600000000004</v>
       </c>
       <c r="G71" s="1">
-        <v>534.03129999999999</v>
+        <v>654.61419999999998</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.75">
@@ -2156,16 +2156,16 @@
         <v>6</v>
       </c>
       <c r="D72">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E72" t="s">
         <v>13</v>
       </c>
       <c r="F72" s="1">
-        <v>433.733</v>
+        <v>526.38810000000001</v>
       </c>
       <c r="G72" s="1">
-        <v>470.45600000000002</v>
+        <v>649.91849999999999</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.75">
@@ -2179,16 +2179,16 @@
         <v>6</v>
       </c>
       <c r="D73">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E73" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F73" s="1">
-        <v>447.85379999999998</v>
+        <v>455.4391</v>
       </c>
       <c r="G73" s="1">
-        <v>477.08120000000002</v>
+        <v>534.03129999999999</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.75">
@@ -2205,13 +2205,13 @@
         <v>0</v>
       </c>
       <c r="E74" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F74" s="1">
-        <v>454.40050000000002</v>
+        <v>433.733</v>
       </c>
       <c r="G74" s="1">
-        <v>527.92309999999998</v>
+        <v>470.45600000000002</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.75">
@@ -2228,13 +2228,13 @@
         <v>0</v>
       </c>
       <c r="E75" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F75" s="1">
-        <v>520.46540000000005</v>
+        <v>447.85379999999998</v>
       </c>
       <c r="G75" s="1">
-        <v>492.7072</v>
+        <v>477.08120000000002</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.75">
@@ -2251,13 +2251,13 @@
         <v>0</v>
       </c>
       <c r="E76" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F76" s="1">
-        <v>462.23809999999997</v>
+        <v>454.40050000000002</v>
       </c>
       <c r="G76" s="1">
-        <v>490.82310000000001</v>
+        <v>527.92309999999998</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.75">
@@ -2274,13 +2274,13 @@
         <v>0</v>
       </c>
       <c r="E77" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F77" s="1">
-        <v>450.86520000000002</v>
+        <v>520.46540000000005</v>
       </c>
       <c r="G77" s="1">
-        <v>568.01210000000003</v>
+        <v>492.7072</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.75">
@@ -2297,13 +2297,13 @@
         <v>0</v>
       </c>
       <c r="E78" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F78" s="1">
-        <v>464.50920000000002</v>
+        <v>462.23809999999997</v>
       </c>
       <c r="G78" s="1">
-        <v>526.59169999999995</v>
+        <v>490.82310000000001</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.75">
@@ -2320,13 +2320,13 @@
         <v>0</v>
       </c>
       <c r="E79" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F79" s="1">
-        <v>522.66470000000004</v>
+        <v>450.86520000000002</v>
       </c>
       <c r="G79" s="1">
-        <v>552.29430000000002</v>
+        <v>568.01210000000003</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.75">
@@ -2343,13 +2343,13 @@
         <v>0</v>
       </c>
       <c r="E80" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F80" s="1">
-        <v>543.8229</v>
+        <v>464.50920000000002</v>
       </c>
       <c r="G80" s="1">
-        <v>617.01430000000005</v>
+        <v>526.59169999999995</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.75">
@@ -2366,13 +2366,13 @@
         <v>0</v>
       </c>
       <c r="E81" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F81" s="1">
-        <v>433.0077</v>
+        <v>522.66470000000004</v>
       </c>
       <c r="G81" s="1">
-        <v>478.4316</v>
+        <v>552.29430000000002</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.75">
@@ -2389,13 +2389,13 @@
         <v>0</v>
       </c>
       <c r="E82" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F82" s="1">
-        <v>446.9323</v>
+        <v>543.8229</v>
       </c>
       <c r="G82" s="1">
-        <v>480.87029999999999</v>
+        <v>617.01430000000005</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.75">
@@ -2412,13 +2412,13 @@
         <v>0</v>
       </c>
       <c r="E83" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F83" s="1">
-        <v>448.46289999999999</v>
+        <v>433.0077</v>
       </c>
       <c r="G83" s="1">
-        <v>548.05409999999995</v>
+        <v>478.4316</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.75">
@@ -2435,13 +2435,13 @@
         <v>0</v>
       </c>
       <c r="E84" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F84" s="1">
-        <v>523.68529999999998</v>
+        <v>446.9323</v>
       </c>
       <c r="G84" s="1">
-        <v>504.46690000000001</v>
+        <v>480.87029999999999</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.75">
@@ -2458,13 +2458,13 @@
         <v>0</v>
       </c>
       <c r="E85" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F85" s="1">
-        <v>445.97070000000002</v>
+        <v>448.46289999999999</v>
       </c>
       <c r="G85" s="1">
-        <v>490.02179999999998</v>
+        <v>548.05409999999995</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.75">
@@ -2481,13 +2481,13 @@
         <v>0</v>
       </c>
       <c r="E86" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F86" s="1">
-        <v>442.85640000000001</v>
+        <v>523.68529999999998</v>
       </c>
       <c r="G86" s="1">
-        <v>539.55309999999997</v>
+        <v>504.46690000000001</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.75">
@@ -2504,13 +2504,13 @@
         <v>0</v>
       </c>
       <c r="E87" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F87" s="1">
-        <v>506.57690000000002</v>
+        <v>445.97070000000002</v>
       </c>
       <c r="G87" s="1">
-        <v>547.52409999999998</v>
+        <v>490.02179999999998</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.75">
@@ -2527,13 +2527,13 @@
         <v>0</v>
       </c>
       <c r="E88" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F88" s="1">
-        <v>516.92880000000002</v>
+        <v>442.85640000000001</v>
       </c>
       <c r="G88" s="1">
-        <v>558.09529999999995</v>
+        <v>539.55309999999997</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.75">
@@ -2550,13 +2550,13 @@
         <v>0</v>
       </c>
       <c r="E89" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F89" s="1">
-        <v>508.03809999999999</v>
+        <v>506.57690000000002</v>
       </c>
       <c r="G89" s="1">
-        <v>576.60059999999999</v>
+        <v>547.52409999999998</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.75">
@@ -2573,13 +2573,13 @@
         <v>0</v>
       </c>
       <c r="E90" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F90" s="1">
-        <v>417.96769999999998</v>
+        <v>516.92880000000002</v>
       </c>
       <c r="G90" s="1">
-        <v>456.02769999999998</v>
+        <v>558.09529999999995</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.75">
@@ -2599,10 +2599,10 @@
         <v>21</v>
       </c>
       <c r="F91" s="1">
-        <v>511.92320000000001</v>
+        <v>508.03809999999999</v>
       </c>
       <c r="G91" s="1">
-        <v>609.98009999999999</v>
+        <v>576.60059999999999</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.75">
@@ -2619,13 +2619,13 @@
         <v>0</v>
       </c>
       <c r="E92" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F92" s="1">
-        <v>490.00470000000001</v>
+        <v>417.96769999999998</v>
       </c>
       <c r="G92" s="1">
-        <v>550.76800000000003</v>
+        <v>456.02769999999998</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.75">
@@ -2642,59 +2642,59 @@
         <v>0</v>
       </c>
       <c r="E93" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F93" s="1">
-        <v>486.73309999999998</v>
+        <v>511.92320000000001</v>
       </c>
       <c r="G93" s="1">
-        <v>538.56560000000002</v>
+        <v>609.98009999999999</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A94" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B94" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C94" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D94">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E94" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F94" s="1">
-        <v>280.48360000000002</v>
+        <v>490.00470000000001</v>
       </c>
       <c r="G94" s="1">
-        <v>455.23379999999997</v>
+        <v>550.76800000000003</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A95" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B95" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C95" t="s">
         <v>6</v>
       </c>
       <c r="D95">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E95" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F95" s="1">
-        <v>276.51990000000001</v>
+        <v>486.73309999999998</v>
       </c>
       <c r="G95" s="1">
-        <v>431.4796</v>
+        <v>538.56560000000002</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.75">
@@ -2702,7 +2702,7 @@
         <v>9</v>
       </c>
       <c r="B96" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C96" t="s">
         <v>5</v>
@@ -2711,13 +2711,13 @@
         <v>100</v>
       </c>
       <c r="E96" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F96" s="1">
-        <v>325.9384</v>
+        <v>280.48360000000002</v>
       </c>
       <c r="G96" s="1">
-        <v>442.0994</v>
+        <v>455.23379999999997</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.75">
@@ -2725,22 +2725,22 @@
         <v>9</v>
       </c>
       <c r="B97" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C97" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D97">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="E97" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F97" s="1">
-        <v>298.78100000000001</v>
+        <v>276.51990000000001</v>
       </c>
       <c r="G97" s="1">
-        <v>367.70839999999998</v>
+        <v>431.4796</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.75">
@@ -2754,16 +2754,16 @@
         <v>5</v>
       </c>
       <c r="D98">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E98" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F98" s="1">
-        <v>294.75380000000001</v>
+        <v>325.9384</v>
       </c>
       <c r="G98" s="1">
-        <v>320.10000000000002</v>
+        <v>442.0994</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.75">
@@ -2777,16 +2777,16 @@
         <v>5</v>
       </c>
       <c r="D99">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="E99" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F99" s="1">
-        <v>299.41090000000003</v>
+        <v>298.78100000000001</v>
       </c>
       <c r="G99" s="1">
-        <v>323.37650000000002</v>
+        <v>367.70839999999998</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.75">
@@ -2803,13 +2803,13 @@
         <v>50</v>
       </c>
       <c r="E100" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F100" s="1">
-        <v>300.74079999999998</v>
+        <v>294.75380000000001</v>
       </c>
       <c r="G100" s="1">
-        <v>329.56920000000002</v>
+        <v>320.10000000000002</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.75">
@@ -2823,16 +2823,16 @@
         <v>5</v>
       </c>
       <c r="D101">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="E101" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F101" s="1">
-        <v>286.18830000000003</v>
+        <v>299.41090000000003</v>
       </c>
       <c r="G101" s="1">
-        <v>349.00560000000002</v>
+        <v>323.37650000000002</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.75">
@@ -2846,16 +2846,16 @@
         <v>5</v>
       </c>
       <c r="D102">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="E102" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F102" s="1">
-        <v>296.08800000000002</v>
+        <v>300.74079999999998</v>
       </c>
       <c r="G102" s="1">
-        <v>343.2833</v>
+        <v>329.56920000000002</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.75">
@@ -2872,13 +2872,13 @@
         <v>75</v>
       </c>
       <c r="E103" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F103" s="1">
-        <v>284.19740000000002</v>
+        <v>286.18830000000003</v>
       </c>
       <c r="G103" s="1">
-        <v>368.6533</v>
+        <v>349.00560000000002</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.75">
@@ -2895,13 +2895,13 @@
         <v>75</v>
       </c>
       <c r="E104" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F104" s="1">
-        <v>315.17360000000002</v>
+        <v>296.08800000000002</v>
       </c>
       <c r="G104" s="1">
-        <v>365.22309999999999</v>
+        <v>343.2833</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.75">
@@ -2918,13 +2918,13 @@
         <v>75</v>
       </c>
       <c r="E105" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F105" s="1">
-        <v>299.58300000000003</v>
+        <v>284.19740000000002</v>
       </c>
       <c r="G105" s="1">
-        <v>361.76240000000001</v>
+        <v>368.6533</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.75">
@@ -2941,13 +2941,13 @@
         <v>75</v>
       </c>
       <c r="E106" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F106" s="1">
-        <v>293.93819999999999</v>
+        <v>315.17360000000002</v>
       </c>
       <c r="G106" s="1">
-        <v>388.1524</v>
+        <v>365.22309999999999</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.75">
@@ -2964,13 +2964,13 @@
         <v>75</v>
       </c>
       <c r="E107" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F107" s="1">
-        <v>327.6191</v>
+        <v>299.58300000000003</v>
       </c>
       <c r="G107" s="1">
-        <v>374.92590000000001</v>
+        <v>361.76240000000001</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.75">
@@ -2987,13 +2987,13 @@
         <v>75</v>
       </c>
       <c r="E108" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F108" s="1">
-        <v>322.58449999999999</v>
+        <v>293.93819999999999</v>
       </c>
       <c r="G108" s="1">
-        <v>378.27120000000002</v>
+        <v>388.1524</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.75">
@@ -3010,13 +3010,13 @@
         <v>75</v>
       </c>
       <c r="E109" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F109" s="1">
-        <v>344.32049999999998</v>
+        <v>327.6191</v>
       </c>
       <c r="G109" s="1">
-        <v>389.51080000000002</v>
+        <v>374.92590000000001</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.75">
@@ -3027,19 +3027,19 @@
         <v>11</v>
       </c>
       <c r="C110" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D110">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="E110" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F110" s="1">
-        <v>322.8075</v>
+        <v>322.58449999999999</v>
       </c>
       <c r="G110" s="1">
-        <v>445.66370000000001</v>
+        <v>378.27120000000002</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.75">
@@ -3050,19 +3050,19 @@
         <v>11</v>
       </c>
       <c r="C111" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D111">
         <v>75</v>
       </c>
       <c r="E111" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F111" s="1">
-        <v>293.53840000000002</v>
+        <v>344.32049999999998</v>
       </c>
       <c r="G111" s="1">
-        <v>376.21699999999998</v>
+        <v>389.51080000000002</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.75">
@@ -3076,16 +3076,16 @@
         <v>6</v>
       </c>
       <c r="D112">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E112" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F112" s="1">
-        <v>279.99579999999997</v>
+        <v>322.8075</v>
       </c>
       <c r="G112" s="1">
-        <v>324.59219999999999</v>
+        <v>445.66370000000001</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.75">
@@ -3099,16 +3099,16 @@
         <v>6</v>
       </c>
       <c r="D113">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="E113" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F113" s="1">
-        <v>300.82819999999998</v>
+        <v>293.53840000000002</v>
       </c>
       <c r="G113" s="1">
-        <v>330.63189999999997</v>
+        <v>376.21699999999998</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.75">
@@ -3125,13 +3125,13 @@
         <v>50</v>
       </c>
       <c r="E114" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F114" s="1">
-        <v>319.1472</v>
+        <v>279.99579999999997</v>
       </c>
       <c r="G114" s="1">
-        <v>333.9477</v>
+        <v>324.59219999999999</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.75">
@@ -3145,16 +3145,16 @@
         <v>6</v>
       </c>
       <c r="D115">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="E115" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F115" s="1">
-        <v>290.15660000000003</v>
+        <v>300.82819999999998</v>
       </c>
       <c r="G115" s="1">
-        <v>351.15300000000002</v>
+        <v>330.63189999999997</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.75">
@@ -3168,16 +3168,16 @@
         <v>6</v>
       </c>
       <c r="D116">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="E116" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F116" s="1">
-        <v>300.3956</v>
+        <v>319.1472</v>
       </c>
       <c r="G116" s="1">
-        <v>343.10079999999999</v>
+        <v>333.9477</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.75">
@@ -3194,13 +3194,13 @@
         <v>75</v>
       </c>
       <c r="E117" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F117" s="1">
-        <v>284.08339999999998</v>
+        <v>290.15660000000003</v>
       </c>
       <c r="G117" s="1">
-        <v>371.28469999999999</v>
+        <v>351.15300000000002</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.75">
@@ -3217,13 +3217,13 @@
         <v>75</v>
       </c>
       <c r="E118" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F118" s="1">
-        <v>309.79379999999998</v>
+        <v>300.3956</v>
       </c>
       <c r="G118" s="1">
-        <v>366.08839999999998</v>
+        <v>343.10079999999999</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.75">
@@ -3240,13 +3240,13 @@
         <v>75</v>
       </c>
       <c r="E119" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F119" s="1">
-        <v>305.70429999999999</v>
+        <v>284.08339999999998</v>
       </c>
       <c r="G119" s="1">
-        <v>354.28750000000002</v>
+        <v>371.28469999999999</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.75">
@@ -3263,13 +3263,13 @@
         <v>75</v>
       </c>
       <c r="E120" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F120" s="1">
-        <v>288.8888</v>
+        <v>309.79379999999998</v>
       </c>
       <c r="G120" s="1">
-        <v>368.06</v>
+        <v>366.08839999999998</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.75">
@@ -3286,13 +3286,13 @@
         <v>75</v>
       </c>
       <c r="E121" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F121" s="1">
-        <v>320.94209999999998</v>
+        <v>305.70429999999999</v>
       </c>
       <c r="G121" s="1">
-        <v>377.96469999999999</v>
+        <v>354.28750000000002</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.75">
@@ -3309,13 +3309,13 @@
         <v>75</v>
       </c>
       <c r="E122" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F122" s="1">
-        <v>319.3467</v>
+        <v>288.8888</v>
       </c>
       <c r="G122" s="1">
-        <v>377.2697</v>
+        <v>368.06</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.75">
@@ -3332,59 +3332,59 @@
         <v>75</v>
       </c>
       <c r="E123" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F123" s="1">
-        <v>335.40309999999999</v>
+        <v>320.94209999999998</v>
       </c>
       <c r="G123" s="1">
-        <v>395.89170000000001</v>
+        <v>377.96469999999999</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A124" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B124" t="s">
         <v>11</v>
       </c>
       <c r="C124" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D124">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="E124" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F124" s="1">
-        <v>283.5779</v>
+        <v>319.3467</v>
       </c>
       <c r="G124" s="1">
-        <v>353.29340000000002</v>
+        <v>377.2697</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A125" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B125" t="s">
         <v>11</v>
       </c>
       <c r="C125" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D125">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="E125" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F125" s="1">
-        <v>286.73669999999998</v>
+        <v>335.40309999999999</v>
       </c>
       <c r="G125" s="1">
-        <v>375.72019999999998</v>
+        <v>395.89170000000001</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.75">
@@ -3401,13 +3401,13 @@
         <v>100</v>
       </c>
       <c r="E126" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F126" s="1">
-        <v>282.23860000000002</v>
+        <v>283.5779</v>
       </c>
       <c r="G126" s="1">
-        <v>362.66879999999998</v>
+        <v>353.29340000000002</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.75">
@@ -3424,13 +3424,13 @@
         <v>100</v>
       </c>
       <c r="E127" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F127" s="1">
-        <v>304.4665</v>
+        <v>286.73669999999998</v>
       </c>
       <c r="G127" s="1">
-        <v>370.6841</v>
+        <v>375.72019999999998</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.75">
@@ -3447,13 +3447,13 @@
         <v>100</v>
       </c>
       <c r="E128" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F128" s="1">
-        <v>278.36090000000002</v>
+        <v>282.23860000000002</v>
       </c>
       <c r="G128" s="1">
-        <v>345.71080000000001</v>
+        <v>362.66879999999998</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.75">
@@ -3470,13 +3470,13 @@
         <v>100</v>
       </c>
       <c r="E129" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F129" s="1">
-        <v>295.34100000000001</v>
+        <v>304.4665</v>
       </c>
       <c r="G129" s="1">
-        <v>368.59730000000002</v>
+        <v>370.6841</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.75">
@@ -3493,13 +3493,13 @@
         <v>100</v>
       </c>
       <c r="E130" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F130" s="1">
-        <v>278.79020000000003</v>
+        <v>278.36090000000002</v>
       </c>
       <c r="G130" s="1">
-        <v>361.07190000000003</v>
+        <v>345.71080000000001</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.75">
@@ -3516,13 +3516,13 @@
         <v>100</v>
       </c>
       <c r="E131" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F131" s="1">
-        <v>280.74380000000002</v>
+        <v>295.34100000000001</v>
       </c>
       <c r="G131" s="1">
-        <v>374.55250000000001</v>
+        <v>368.59730000000002</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.75">
@@ -3539,13 +3539,13 @@
         <v>100</v>
       </c>
       <c r="E132" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F132" s="1">
-        <v>287.6361</v>
+        <v>278.79020000000003</v>
       </c>
       <c r="G132" s="1">
-        <v>383.41030000000001</v>
+        <v>361.07190000000003</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.75">
@@ -3562,13 +3562,13 @@
         <v>100</v>
       </c>
       <c r="E133" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F133" s="1">
-        <v>294.42970000000003</v>
+        <v>280.74380000000002</v>
       </c>
       <c r="G133" s="1">
-        <v>379.42309999999998</v>
+        <v>374.55250000000001</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.75">
@@ -3585,13 +3585,13 @@
         <v>100</v>
       </c>
       <c r="E134" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F134" s="1">
-        <v>305.55399999999997</v>
+        <v>287.6361</v>
       </c>
       <c r="G134" s="1">
-        <v>405.33420000000001</v>
+        <v>383.41030000000001</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.75">
@@ -3608,13 +3608,13 @@
         <v>100</v>
       </c>
       <c r="E135" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F135" s="1">
-        <v>289.84519999999998</v>
+        <v>294.42970000000003</v>
       </c>
       <c r="G135" s="1">
-        <v>383.46120000000002</v>
+        <v>379.42309999999998</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.75">
@@ -3631,13 +3631,13 @@
         <v>100</v>
       </c>
       <c r="E136" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F136" s="1">
-        <v>279.78269999999998</v>
+        <v>305.55399999999997</v>
       </c>
       <c r="G136" s="1">
-        <v>346.68169999999998</v>
+        <v>405.33420000000001</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.75">
@@ -3654,13 +3654,13 @@
         <v>100</v>
       </c>
       <c r="E137" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F137" s="1">
-        <v>286.33030000000002</v>
+        <v>289.84519999999998</v>
       </c>
       <c r="G137" s="1">
-        <v>347.91500000000002</v>
+        <v>383.46120000000002</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.75">
@@ -3671,19 +3671,19 @@
         <v>11</v>
       </c>
       <c r="C138" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D138">
         <v>100</v>
       </c>
       <c r="E138" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F138" s="1">
-        <v>291.22250000000003</v>
+        <v>279.78269999999998</v>
       </c>
       <c r="G138" s="1">
-        <v>338.35320000000002</v>
+        <v>346.68169999999998</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.75">
@@ -3694,7 +3694,7 @@
         <v>11</v>
       </c>
       <c r="C139" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D139">
         <v>100</v>
@@ -3703,10 +3703,10 @@
         <v>19</v>
       </c>
       <c r="F139" s="1">
-        <v>294.17880000000002</v>
+        <v>286.33030000000002</v>
       </c>
       <c r="G139" s="1">
-        <v>358.8372</v>
+        <v>347.91500000000002</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.75">
@@ -3723,13 +3723,13 @@
         <v>100</v>
       </c>
       <c r="E140" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F140" s="1">
-        <v>301.42529999999999</v>
+        <v>291.22250000000003</v>
       </c>
       <c r="G140" s="1">
-        <v>357.9776</v>
+        <v>338.35320000000002</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.75">
@@ -3746,13 +3746,13 @@
         <v>100</v>
       </c>
       <c r="E141" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F141" s="1">
-        <v>312.97899999999998</v>
+        <v>294.17880000000002</v>
       </c>
       <c r="G141" s="1">
-        <v>364.25450000000001</v>
+        <v>358.8372</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.75">
@@ -3769,13 +3769,13 @@
         <v>100</v>
       </c>
       <c r="E142" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F142" s="1">
-        <v>275.10000000000002</v>
+        <v>301.42529999999999</v>
       </c>
       <c r="G142" s="1">
-        <v>343.87139999999999</v>
+        <v>357.9776</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.75">
@@ -3792,13 +3792,13 @@
         <v>100</v>
       </c>
       <c r="E143" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F143" s="1">
-        <v>294.76740000000001</v>
+        <v>312.97899999999998</v>
       </c>
       <c r="G143" s="1">
-        <v>359.19639999999998</v>
+        <v>364.25450000000001</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.75">
@@ -3815,13 +3815,13 @@
         <v>100</v>
       </c>
       <c r="E144" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F144" s="1">
-        <v>276.55759999999998</v>
+        <v>275.10000000000002</v>
       </c>
       <c r="G144" s="1">
-        <v>349.2704</v>
+        <v>343.87139999999999</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.75">
@@ -3838,13 +3838,13 @@
         <v>100</v>
       </c>
       <c r="E145" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F145" s="1">
-        <v>277.32920000000001</v>
+        <v>294.76740000000001</v>
       </c>
       <c r="G145" s="1">
-        <v>382.97930000000002</v>
+        <v>359.19639999999998</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.75">
@@ -3861,13 +3861,13 @@
         <v>100</v>
       </c>
       <c r="E146" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F146" s="1">
-        <v>302.20650000000001</v>
+        <v>276.55759999999998</v>
       </c>
       <c r="G146" s="1">
-        <v>382.31200000000001</v>
+        <v>349.2704</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.75">
@@ -3884,13 +3884,13 @@
         <v>100</v>
       </c>
       <c r="E147" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F147" s="1">
-        <v>299.35500000000002</v>
+        <v>277.32920000000001</v>
       </c>
       <c r="G147" s="1">
-        <v>379.42309999999998</v>
+        <v>382.97930000000002</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.75">
@@ -3907,13 +3907,13 @@
         <v>100</v>
       </c>
       <c r="E148" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F148" s="1">
-        <v>312.82979999999998</v>
+        <v>302.20650000000001</v>
       </c>
       <c r="G148" s="1">
-        <v>375.97379999999998</v>
+        <v>382.31200000000001</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.75">
@@ -3930,13 +3930,13 @@
         <v>100</v>
       </c>
       <c r="E149" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F149" s="1">
-        <v>288.28660000000002</v>
+        <v>299.35500000000002</v>
       </c>
       <c r="G149" s="1">
-        <v>350.95229999999998</v>
+        <v>379.42309999999998</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.75">
@@ -3953,13 +3953,13 @@
         <v>100</v>
       </c>
       <c r="E150" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F150" s="1">
-        <v>279.69819999999999</v>
+        <v>312.82979999999998</v>
       </c>
       <c r="G150" s="1">
-        <v>334.43700000000001</v>
+        <v>375.97379999999998</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.75">
@@ -3976,12 +3976,58 @@
         <v>100</v>
       </c>
       <c r="E151" t="s">
+        <v>21</v>
+      </c>
+      <c r="F151" s="1">
+        <v>288.28660000000002</v>
+      </c>
+      <c r="G151" s="1">
+        <v>350.95229999999998</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A152" t="s">
+        <v>10</v>
+      </c>
+      <c r="B152" t="s">
+        <v>11</v>
+      </c>
+      <c r="C152" t="s">
+        <v>6</v>
+      </c>
+      <c r="D152">
+        <v>100</v>
+      </c>
+      <c r="E152" t="s">
+        <v>20</v>
+      </c>
+      <c r="F152" s="1">
+        <v>279.69819999999999</v>
+      </c>
+      <c r="G152" s="1">
+        <v>334.43700000000001</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A153" t="s">
+        <v>10</v>
+      </c>
+      <c r="B153" t="s">
+        <v>11</v>
+      </c>
+      <c r="C153" t="s">
+        <v>6</v>
+      </c>
+      <c r="D153">
+        <v>100</v>
+      </c>
+      <c r="E153" t="s">
         <v>19</v>
       </c>
-      <c r="F151" s="1">
+      <c r="F153" s="1">
         <v>290.24529999999999</v>
       </c>
-      <c r="G151" s="1">
+      <c r="G153" s="1">
         <v>337.65429999999998</v>
       </c>
     </row>
